--- a/data_year/zb/公共管理、社会保障及其他/城镇基本养老保险.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/城镇基本养老保险.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,527 +468,317 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10447.4965</v>
+        <v>19402.3383</v>
       </c>
       <c r="C2" t="n">
-        <v>13617.3965</v>
+        <v>25707.2989</v>
       </c>
       <c r="D2" t="n">
-        <v>2115.4833</v>
+        <v>10554.9204</v>
       </c>
       <c r="E2" t="n">
-        <v>2278.5</v>
+        <v>13419.5263</v>
       </c>
       <c r="F2" t="n">
-        <v>947.1165</v>
+        <v>15365.2805</v>
       </c>
       <c r="G2" t="n">
-        <v>3169.9</v>
+        <v>6304.9606</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10801.885</v>
+        <v>21565.0499</v>
       </c>
       <c r="C3" t="n">
-        <v>14182.5203</v>
+        <v>28391.2689</v>
       </c>
       <c r="D3" t="n">
-        <v>2321.2601</v>
+        <v>12764.9486</v>
       </c>
       <c r="E3" t="n">
-        <v>2488.9606</v>
+        <v>16894.728</v>
       </c>
       <c r="F3" t="n">
-        <v>1054.0818</v>
+        <v>19496.5955</v>
       </c>
       <c r="G3" t="n">
-        <v>3380.6353</v>
+        <v>6826.219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11128.8</v>
+        <v>22981.1156</v>
       </c>
       <c r="C4" t="n">
-        <v>14736.6</v>
+        <v>30426.7982</v>
       </c>
       <c r="D4" t="n">
-        <v>2842.9072</v>
+        <v>15561.7924</v>
       </c>
       <c r="E4" t="n">
-        <v>3171.4607</v>
+        <v>20000.9922</v>
       </c>
       <c r="F4" t="n">
-        <v>1608.0319</v>
+        <v>23941.3111</v>
       </c>
       <c r="G4" t="n">
-        <v>3607.8</v>
+        <v>7445.6825</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11646.5</v>
+        <v>24177.326</v>
       </c>
       <c r="C5" t="n">
-        <v>15506.7</v>
+        <v>32218.3756</v>
       </c>
       <c r="D5" t="n">
-        <v>3122.1</v>
+        <v>18470.4313</v>
       </c>
       <c r="E5" t="n">
-        <v>3680</v>
+        <v>22680.3664</v>
       </c>
       <c r="F5" t="n">
-        <v>2206.5</v>
+        <v>28269.1795</v>
       </c>
       <c r="G5" t="n">
-        <v>3860.2</v>
+        <v>8041.0495</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12250.3</v>
+        <v>25530.9879</v>
       </c>
       <c r="C6" t="n">
-        <v>16352.9</v>
+        <v>34124.3791</v>
       </c>
       <c r="D6" t="n">
-        <v>3502.1</v>
+        <v>21754.6532</v>
       </c>
       <c r="E6" t="n">
-        <v>4258.4</v>
+        <v>25309.6743</v>
       </c>
       <c r="F6" t="n">
-        <v>2975</v>
+        <v>31799.964</v>
       </c>
       <c r="G6" t="n">
-        <v>4102.6</v>
+        <v>8593.3912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13120.4</v>
+        <v>26219.243</v>
       </c>
       <c r="C7" t="n">
-        <v>17487.9</v>
+        <v>35361.168</v>
       </c>
       <c r="D7" t="n">
-        <v>4040.3</v>
+        <v>25812.7263</v>
       </c>
       <c r="E7" t="n">
-        <v>5093.3</v>
+        <v>29340.8501</v>
       </c>
       <c r="F7" t="n">
-        <v>4041</v>
+        <v>35344.7972</v>
       </c>
       <c r="G7" t="n">
-        <v>4367.5</v>
+        <v>9141.924999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14130.9</v>
+        <v>27826.284</v>
       </c>
       <c r="C8" t="n">
-        <v>18766.3</v>
+        <v>37929.71</v>
       </c>
       <c r="D8" t="n">
-        <v>4896.655510000001</v>
+        <v>31853.8152</v>
       </c>
       <c r="E8" t="n">
-        <v>6309.8</v>
+        <v>35057.5036</v>
       </c>
       <c r="F8" t="n">
-        <v>5488.88162</v>
+        <v>38580.0322</v>
       </c>
       <c r="G8" t="n">
-        <v>4635.4</v>
+        <v>10103.426</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15183.2</v>
+        <v>29267.612</v>
       </c>
       <c r="C9" t="n">
-        <v>20136.9</v>
+        <v>40293.296</v>
       </c>
       <c r="D9" t="n">
-        <v>5964.9</v>
+        <v>38051.5353</v>
       </c>
       <c r="E9" t="n">
-        <v>7834.2</v>
+        <v>43309.5678</v>
       </c>
       <c r="F9" t="n">
-        <v>7391.4</v>
+        <v>43884.5819</v>
       </c>
       <c r="G9" t="n">
-        <v>4953.7</v>
+        <v>11025.684</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16587.5367</v>
+        <v>30103.951</v>
       </c>
       <c r="C10" t="n">
-        <v>21891.0987</v>
+        <v>41901.634</v>
       </c>
       <c r="D10" t="n">
-        <v>7389.6</v>
+        <v>44644.9043</v>
       </c>
       <c r="E10" t="n">
-        <v>9740.200000000001</v>
+        <v>51167.5583</v>
       </c>
       <c r="F10" t="n">
-        <v>9931</v>
+        <v>50901.2516</v>
       </c>
       <c r="G10" t="n">
-        <v>5303.562</v>
+        <v>11797.683</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17743.0348</v>
+        <v>31177.467</v>
       </c>
       <c r="C11" t="n">
-        <v>23549.8912</v>
+        <v>43487.901</v>
       </c>
       <c r="D11" t="n">
-        <v>8894.4287</v>
+        <v>49228.0243</v>
       </c>
       <c r="E11" t="n">
-        <v>11490.8428</v>
+        <v>52918.8342</v>
       </c>
       <c r="F11" t="n">
-        <v>12526.0925</v>
+        <v>54623.3422</v>
       </c>
       <c r="G11" t="n">
-        <v>5806.8564</v>
+        <v>12310.434</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19402.3383</v>
+        <v>32858.743</v>
       </c>
       <c r="C12" t="n">
-        <v>25707.2989</v>
+        <v>45621.05</v>
       </c>
       <c r="D12" t="n">
-        <v>10554.9204</v>
+        <v>51301.4015</v>
       </c>
       <c r="E12" t="n">
-        <v>13419.5263</v>
+        <v>44375.7031</v>
       </c>
       <c r="F12" t="n">
-        <v>15365.2805</v>
+        <v>48316.5887</v>
       </c>
       <c r="G12" t="n">
-        <v>6304.9606</v>
+        <v>12762.307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21565.0499</v>
+        <v>34917.0713</v>
       </c>
       <c r="C13" t="n">
-        <v>28391.2689</v>
+        <v>48074.0377</v>
       </c>
       <c r="D13" t="n">
-        <v>12764.9486</v>
+        <v>56481.4635</v>
       </c>
       <c r="E13" t="n">
-        <v>16894.728</v>
+        <v>60454.7029</v>
       </c>
       <c r="F13" t="n">
-        <v>19496.5955</v>
+        <v>52573.5693</v>
       </c>
       <c r="G13" t="n">
-        <v>6826.219</v>
+        <v>13156.9664</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>22981.1156</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>30426.7982</v>
-      </c>
-      <c r="D14" t="n">
-        <v>15561.7924</v>
-      </c>
-      <c r="E14" t="n">
-        <v>20000.9922</v>
-      </c>
-      <c r="F14" t="n">
-        <v>23941.3111</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7445.6825</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>24177.326</v>
-      </c>
-      <c r="C15" t="n">
-        <v>32218.3756</v>
-      </c>
-      <c r="D15" t="n">
-        <v>18470.4313</v>
-      </c>
-      <c r="E15" t="n">
-        <v>22680.3664</v>
-      </c>
-      <c r="F15" t="n">
-        <v>28269.1795</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8041.0495</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>25530.9879</v>
-      </c>
-      <c r="C16" t="n">
-        <v>34124.3791</v>
-      </c>
-      <c r="D16" t="n">
-        <v>21754.6532</v>
-      </c>
-      <c r="E16" t="n">
-        <v>25309.6743</v>
-      </c>
-      <c r="F16" t="n">
-        <v>31799.964</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8593.3912</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>26219.243</v>
-      </c>
-      <c r="C17" t="n">
-        <v>35361.168</v>
-      </c>
-      <c r="D17" t="n">
-        <v>25812.7263</v>
-      </c>
-      <c r="E17" t="n">
-        <v>29340.8501</v>
-      </c>
-      <c r="F17" t="n">
-        <v>35344.7972</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9141.924999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>27826.284</v>
-      </c>
-      <c r="C18" t="n">
-        <v>37929.71</v>
-      </c>
-      <c r="D18" t="n">
-        <v>31853.8152</v>
-      </c>
-      <c r="E18" t="n">
-        <v>35057.5036</v>
-      </c>
-      <c r="F18" t="n">
-        <v>38580.0322</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10103.426</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>29267.612</v>
-      </c>
-      <c r="C19" t="n">
-        <v>40293.296</v>
-      </c>
-      <c r="D19" t="n">
-        <v>38051.5353</v>
-      </c>
-      <c r="E19" t="n">
-        <v>43309.5678</v>
-      </c>
-      <c r="F19" t="n">
-        <v>43884.5819</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11025.684</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>30103.951</v>
-      </c>
-      <c r="C20" t="n">
-        <v>41901.634</v>
-      </c>
-      <c r="D20" t="n">
-        <v>44644.9043</v>
-      </c>
-      <c r="E20" t="n">
-        <v>51167.5583</v>
-      </c>
-      <c r="F20" t="n">
-        <v>50901.2516</v>
-      </c>
-      <c r="G20" t="n">
-        <v>11797.683</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>31177.467</v>
-      </c>
-      <c r="C21" t="n">
-        <v>43487.901</v>
-      </c>
-      <c r="D21" t="n">
-        <v>49228.0243</v>
-      </c>
-      <c r="E21" t="n">
-        <v>52918.8342</v>
-      </c>
-      <c r="F21" t="n">
-        <v>54623.3422</v>
-      </c>
-      <c r="G21" t="n">
-        <v>12310.434</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>32858.743</v>
-      </c>
-      <c r="C22" t="n">
-        <v>45621.05</v>
-      </c>
-      <c r="D22" t="n">
-        <v>51301.4015</v>
-      </c>
-      <c r="E22" t="n">
-        <v>44375.7031</v>
-      </c>
-      <c r="F22" t="n">
-        <v>48316.5887</v>
-      </c>
-      <c r="G22" t="n">
-        <v>12762.307</v>
-      </c>
+        <v>50349</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
